--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1363906666666667</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N2">
-        <v>0.409172</v>
+        <v>0.120715</v>
       </c>
       <c r="O2">
-        <v>0.006421450140662059</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P2">
-        <v>0.006461395109718823</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q2">
-        <v>1.453471644189778</v>
+        <v>0.512599535178889</v>
       </c>
       <c r="R2">
-        <v>13.081244797708</v>
+        <v>4.613395816610001</v>
       </c>
       <c r="S2">
-        <v>3.359499488546187E-05</v>
+        <v>1.155581617414183E-05</v>
       </c>
       <c r="T2">
-        <v>3.413412989102578E-05</v>
+        <v>1.18512596043691E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.66750966666666</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N3">
         <v>62.002529</v>
       </c>
       <c r="O3">
-        <v>0.9730532601655376</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P3">
-        <v>0.9791061892573283</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q3">
-        <v>220.2470300254034</v>
+        <v>263.2851554928185</v>
       </c>
       <c r="R3">
-        <v>1982.223270228631</v>
+        <v>2369.566399435366</v>
       </c>
       <c r="S3">
-        <v>0.005090706706814495</v>
+        <v>0.005935383568370938</v>
       </c>
       <c r="T3">
-        <v>0.005172402751063349</v>
+        <v>0.006087131402944323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02296733333333334</v>
+        <v>0.022458</v>
       </c>
       <c r="N4">
-        <v>0.068902</v>
+        <v>0.067374</v>
       </c>
       <c r="O4">
-        <v>0.001081331952313201</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P4">
-        <v>0.001088058434716565</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q4">
-        <v>0.2447555141308889</v>
+        <v>0.2860943634440001</v>
       </c>
       <c r="R4">
-        <v>2.202799627178</v>
+        <v>2.574849270996</v>
       </c>
       <c r="S4">
-        <v>5.657186556260188E-06</v>
+        <v>6.449584218337667E-06</v>
       </c>
       <c r="T4">
-        <v>5.747973511754124E-06</v>
+        <v>6.614478437516167E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>5894.824219</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3939205</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N5">
-        <v>0.787841</v>
+        <v>0.120715</v>
       </c>
       <c r="O5">
-        <v>0.01854628994751353</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P5">
-        <v>0.01244110541443693</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q5">
-        <v>4.197884582633167</v>
+        <v>79.06596728850944</v>
       </c>
       <c r="R5">
-        <v>25.187307495799</v>
+        <v>711.593705596585</v>
       </c>
       <c r="S5">
-        <v>9.702831950459891E-05</v>
+        <v>0.001782428037703681</v>
       </c>
       <c r="T5">
-        <v>6.572362485085891E-05</v>
+        <v>0.001827998739561229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>5894.824219</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01906633333333333</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N6">
-        <v>0.057199</v>
+        <v>62.002529</v>
       </c>
       <c r="O6">
-        <v>0.0008976677939735102</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P6">
-        <v>0.000903251783799495</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q6">
-        <v>0.2031838067512222</v>
+        <v>40610.44550982776</v>
       </c>
       <c r="R6">
-        <v>1.828654260761</v>
+        <v>365494.0095884498</v>
       </c>
       <c r="S6">
-        <v>4.696313805572066E-06</v>
+        <v>0.9155038404352035</v>
       </c>
       <c r="T6">
-        <v>4.771680602868191E-06</v>
+        <v>0.9389102005683516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1363906666666667</v>
+        <v>0.022458</v>
       </c>
       <c r="N7">
-        <v>0.409172</v>
+        <v>0.067374</v>
       </c>
       <c r="O7">
-        <v>0.006421450140662059</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P7">
-        <v>0.006461395109718823</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q7">
-        <v>267.9996683707409</v>
+        <v>44.128654103434</v>
       </c>
       <c r="R7">
-        <v>2411.997015336668</v>
+        <v>397.157886930906</v>
       </c>
       <c r="S7">
-        <v>0.006194443162487281</v>
+        <v>0.0009948167718365391</v>
       </c>
       <c r="T7">
-        <v>0.006293852052420411</v>
+        <v>0.001020250897396332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1964.941406333333</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H8">
-        <v>5894.824219</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>20.66750966666666</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N8">
-        <v>62.002529</v>
+        <v>0.120715</v>
       </c>
       <c r="O8">
-        <v>0.9730532601655376</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P8">
-        <v>0.9791061892573283</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q8">
-        <v>40610.44550982775</v>
+        <v>0.04393488147611112</v>
       </c>
       <c r="R8">
-        <v>365494.0095884498</v>
+        <v>0.3954139332850001</v>
       </c>
       <c r="S8">
-        <v>0.9386545067134832</v>
+        <v>9.904484478189563E-07</v>
       </c>
       <c r="T8">
-        <v>0.9537181048603179</v>
+        <v>1.015770889996749E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1964.941406333333</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H9">
-        <v>5894.824219</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02296733333333334</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N9">
-        <v>0.068902</v>
+        <v>62.002529</v>
       </c>
       <c r="O9">
-        <v>0.001081331952313201</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P9">
-        <v>0.001088058434716565</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q9">
-        <v>45.12946425972645</v>
+        <v>22.56615799887456</v>
       </c>
       <c r="R9">
-        <v>406.165178337538</v>
+        <v>203.0954219898711</v>
       </c>
       <c r="S9">
-        <v>0.001043105400129282</v>
+        <v>0.0005087214398285202</v>
       </c>
       <c r="T9">
-        <v>0.001059845234072398</v>
+        <v>0.0005217277394224353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1964.941406333333</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H10">
-        <v>5894.824219</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3939205</v>
+        <v>0.022458</v>
       </c>
       <c r="N10">
-        <v>0.787841</v>
+        <v>0.067374</v>
       </c>
       <c r="O10">
-        <v>0.01854628994751353</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P10">
-        <v>0.01244110541443693</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q10">
-        <v>774.0307012535299</v>
+        <v>0.02452113411400001</v>
       </c>
       <c r="R10">
-        <v>4644.184207521179</v>
+        <v>0.2206902070260001</v>
       </c>
       <c r="S10">
-        <v>0.01789065342537054</v>
+        <v>5.52793552775996E-07</v>
       </c>
       <c r="T10">
-        <v>0.01211850931840631</v>
+        <v>5.669266283613553E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1964.941406333333</v>
+        <v>160.0313415</v>
       </c>
       <c r="H11">
-        <v>5894.824219</v>
+        <v>320.062683</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01906633333333333</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N11">
-        <v>0.057199</v>
+        <v>0.120715</v>
       </c>
       <c r="O11">
-        <v>0.0008976677939735102</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P11">
-        <v>0.000903251783799495</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q11">
-        <v>37.46422783362011</v>
+        <v>6.4393944630575</v>
       </c>
       <c r="R11">
-        <v>337.178050502581</v>
+        <v>38.636366778345</v>
       </c>
       <c r="S11">
-        <v>0.0008659340190704887</v>
+        <v>0.0001451668477653037</v>
       </c>
       <c r="T11">
-        <v>0.0008798305933602374</v>
+        <v>9.925218452126081E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>160.0313415</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>320.062683</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1363906666666667</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N12">
-        <v>0.409172</v>
+        <v>62.002529</v>
       </c>
       <c r="O12">
-        <v>0.006421450140662059</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P12">
-        <v>0.006461395109718823</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q12">
-        <v>0.159133537552</v>
+        <v>3307.449297420885</v>
       </c>
       <c r="R12">
-        <v>1.432201837968</v>
+        <v>19844.69578452531</v>
       </c>
       <c r="S12">
-        <v>3.678152512665642E-06</v>
+        <v>0.07456166746805969</v>
       </c>
       <c r="T12">
-        <v>3.737179780928125E-06</v>
+        <v>0.05097863934964855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>160.0313415</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>320.062683</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>20.66750966666666</v>
+        <v>0.022458</v>
       </c>
       <c r="N13">
-        <v>62.002529</v>
+        <v>0.067374</v>
       </c>
       <c r="O13">
-        <v>0.9730532601655376</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P13">
-        <v>0.9791061892573283</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q13">
-        <v>24.11377556856399</v>
+        <v>3.593983867407</v>
       </c>
       <c r="R13">
-        <v>217.023980117076</v>
+        <v>21.563903204442</v>
       </c>
       <c r="S13">
-        <v>0.0005573567053292364</v>
+        <v>8.102117550709994E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005663012076711254</v>
+        <v>5.539507666765047E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.000469</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02296733333333334</v>
+        <v>0.04023833333333333</v>
       </c>
       <c r="N14">
-        <v>0.068902</v>
+        <v>0.120715</v>
       </c>
       <c r="O14">
-        <v>0.001081331952313201</v>
+        <v>0.001941048407012131</v>
       </c>
       <c r="P14">
-        <v>0.001088058434716565</v>
+        <v>0.001941048407012132</v>
       </c>
       <c r="Q14">
-        <v>0.026797090232</v>
+        <v>0.0402446239261111</v>
       </c>
       <c r="R14">
-        <v>0.241173812088</v>
+        <v>0.362201615335</v>
       </c>
       <c r="S14">
-        <v>6.193778274849895E-07</v>
+        <v>9.072569211856808E-07</v>
       </c>
       <c r="T14">
-        <v>6.293176494616193E-07</v>
+        <v>9.304524352760079E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.000469</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3939205</v>
+        <v>20.66750966666667</v>
       </c>
       <c r="N15">
-        <v>0.787841</v>
+        <v>62.002529</v>
       </c>
       <c r="O15">
-        <v>0.01854628994751353</v>
+        <v>0.9969756049055502</v>
       </c>
       <c r="P15">
-        <v>0.01244110541443693</v>
+        <v>0.9969756049055503</v>
       </c>
       <c r="Q15">
-        <v>0.459605955534</v>
+        <v>20.67074068734455</v>
       </c>
       <c r="R15">
-        <v>2.757635733204</v>
+        <v>186.036666186101</v>
       </c>
       <c r="S15">
-        <v>1.062315855091873E-05</v>
+        <v>0.0004659919940874448</v>
       </c>
       <c r="T15">
-        <v>7.195759865743978E-06</v>
+        <v>0.0004779058451834594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.000469</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,648 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01906633333333333</v>
+        <v>0.022458</v>
       </c>
       <c r="N16">
-        <v>0.057199</v>
+        <v>0.067374</v>
       </c>
       <c r="O16">
-        <v>0.0008976677939735102</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="P16">
-        <v>0.000903251783799495</v>
+        <v>0.001083346687437645</v>
       </c>
       <c r="Q16">
-        <v>0.022245606284</v>
+        <v>0.022461510934</v>
       </c>
       <c r="R16">
-        <v>0.200210456556</v>
+        <v>0.202153598406</v>
       </c>
       <c r="S16">
-        <v>5.141765457361747E-07</v>
+        <v>5.063623228924663E-07</v>
       </c>
       <c r="T16">
-        <v>5.224280896280973E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>59.10598950000001</v>
-      </c>
-      <c r="H17">
-        <v>118.211979</v>
-      </c>
-      <c r="I17">
-        <v>0.0290169021651515</v>
-      </c>
-      <c r="J17">
-        <v>0.01953353567463783</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1363906666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.409172</v>
-      </c>
-      <c r="O17">
-        <v>0.006421450140662059</v>
-      </c>
-      <c r="P17">
-        <v>0.006461395109718823</v>
-      </c>
-      <c r="Q17">
-        <v>8.061505311898001</v>
-      </c>
-      <c r="R17">
-        <v>48.369031871388</v>
-      </c>
-      <c r="S17">
-        <v>0.0001863305904899893</v>
-      </c>
-      <c r="T17">
-        <v>0.000126213891883623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>59.10598950000001</v>
-      </c>
-      <c r="H18">
-        <v>118.211979</v>
-      </c>
-      <c r="I18">
-        <v>0.0290169021651515</v>
-      </c>
-      <c r="J18">
-        <v>0.01953353567463783</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>20.66750966666666</v>
-      </c>
-      <c r="N18">
-        <v>62.002529</v>
-      </c>
-      <c r="O18">
-        <v>0.9730532601655376</v>
-      </c>
-      <c r="P18">
-        <v>0.9791061892573283</v>
-      </c>
-      <c r="Q18">
-        <v>1221.573609349148</v>
-      </c>
-      <c r="R18">
-        <v>7329.441656094891</v>
-      </c>
-      <c r="S18">
-        <v>0.02823499125170512</v>
-      </c>
-      <c r="T18">
-        <v>0.01912540567711672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>59.10598950000001</v>
-      </c>
-      <c r="H19">
-        <v>118.211979</v>
-      </c>
-      <c r="I19">
-        <v>0.0290169021651515</v>
-      </c>
-      <c r="J19">
-        <v>0.01953353567463783</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.02296733333333334</v>
-      </c>
-      <c r="N19">
-        <v>0.068902</v>
-      </c>
-      <c r="O19">
-        <v>0.001081331952313201</v>
-      </c>
-      <c r="P19">
-        <v>0.001088058434716565</v>
-      </c>
-      <c r="Q19">
-        <v>1.357506962843</v>
-      </c>
-      <c r="R19">
-        <v>8.145041777058001</v>
-      </c>
-      <c r="S19">
-        <v>3.137690346832444E-05</v>
-      </c>
-      <c r="T19">
-        <v>2.125362825062662E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>59.10598950000001</v>
-      </c>
-      <c r="H20">
-        <v>118.211979</v>
-      </c>
-      <c r="I20">
-        <v>0.0290169021651515</v>
-      </c>
-      <c r="J20">
-        <v>0.01953353567463783</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.3939205</v>
-      </c>
-      <c r="N20">
-        <v>0.787841</v>
-      </c>
-      <c r="O20">
-        <v>0.01854628994751353</v>
-      </c>
-      <c r="P20">
-        <v>0.01244110541443693</v>
-      </c>
-      <c r="Q20">
-        <v>23.28306093683475</v>
-      </c>
-      <c r="R20">
-        <v>93.13224374733902</v>
-      </c>
-      <c r="S20">
-        <v>0.0005381558809335329</v>
-      </c>
-      <c r="T20">
-        <v>0.0002430187764448336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>59.10598950000001</v>
-      </c>
-      <c r="H21">
-        <v>118.211979</v>
-      </c>
-      <c r="I21">
-        <v>0.0290169021651515</v>
-      </c>
-      <c r="J21">
-        <v>0.01953353567463783</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01906633333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.057199</v>
-      </c>
-      <c r="O21">
-        <v>0.0008976677939735102</v>
-      </c>
-      <c r="P21">
-        <v>0.000903251783799495</v>
-      </c>
-      <c r="Q21">
-        <v>1.1269344978035</v>
-      </c>
-      <c r="R21">
-        <v>6.761606986821</v>
-      </c>
-      <c r="S21">
-        <v>2.604753855453672E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.764370094202769E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.079543</v>
-      </c>
-      <c r="H22">
-        <v>3.238629</v>
-      </c>
-      <c r="I22">
-        <v>0.0005299800219751696</v>
-      </c>
-      <c r="J22">
-        <v>0.0005351562138082184</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1363906666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.409172</v>
-      </c>
-      <c r="O22">
-        <v>0.006421450140662059</v>
-      </c>
-      <c r="P22">
-        <v>0.006461395109718823</v>
-      </c>
-      <c r="Q22">
-        <v>0.1472395894653333</v>
-      </c>
-      <c r="R22">
-        <v>1.325156305188</v>
-      </c>
-      <c r="S22">
-        <v>3.403240286660534E-06</v>
-      </c>
-      <c r="T22">
-        <v>3.457855742836063E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.079543</v>
-      </c>
-      <c r="H23">
-        <v>3.238629</v>
-      </c>
-      <c r="I23">
-        <v>0.0005299800219751696</v>
-      </c>
-      <c r="J23">
-        <v>0.0005351562138082184</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>20.66750966666666</v>
-      </c>
-      <c r="N23">
-        <v>62.002529</v>
-      </c>
-      <c r="O23">
-        <v>0.9730532601655376</v>
-      </c>
-      <c r="P23">
-        <v>0.9791061892573283</v>
-      </c>
-      <c r="Q23">
-        <v>22.31146538808233</v>
-      </c>
-      <c r="R23">
-        <v>200.803188492741</v>
-      </c>
-      <c r="S23">
-        <v>0.000515698788205542</v>
-      </c>
-      <c r="T23">
-        <v>0.0005239747611591447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.079543</v>
-      </c>
-      <c r="H24">
-        <v>3.238629</v>
-      </c>
-      <c r="I24">
-        <v>0.0005299800219751696</v>
-      </c>
-      <c r="J24">
-        <v>0.0005351562138082184</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02296733333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.068902</v>
-      </c>
-      <c r="O24">
-        <v>0.001081331952313201</v>
-      </c>
-      <c r="P24">
-        <v>0.001088058434716565</v>
-      </c>
-      <c r="Q24">
-        <v>0.02479422392866667</v>
-      </c>
-      <c r="R24">
-        <v>0.223148015358</v>
-      </c>
-      <c r="S24">
-        <v>5.730843318494036E-07</v>
-      </c>
-      <c r="T24">
-        <v>5.822812323250135E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.079543</v>
-      </c>
-      <c r="H25">
-        <v>3.238629</v>
-      </c>
-      <c r="I25">
-        <v>0.0005299800219751696</v>
-      </c>
-      <c r="J25">
-        <v>0.0005351562138082184</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3939205</v>
-      </c>
-      <c r="N25">
-        <v>0.787841</v>
-      </c>
-      <c r="O25">
-        <v>0.01854628994751353</v>
-      </c>
-      <c r="P25">
-        <v>0.01244110541443693</v>
-      </c>
-      <c r="Q25">
-        <v>0.4252541183315</v>
-      </c>
-      <c r="R25">
-        <v>2.551524709989</v>
-      </c>
-      <c r="S25">
-        <v>9.829163153941089E-06</v>
-      </c>
-      <c r="T25">
-        <v>6.657934869178993E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.079543</v>
-      </c>
-      <c r="H26">
-        <v>3.238629</v>
-      </c>
-      <c r="I26">
-        <v>0.0005299800219751696</v>
-      </c>
-      <c r="J26">
-        <v>0.0005351562138082184</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.01906633333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.057199</v>
-      </c>
-      <c r="O26">
-        <v>0.0008976677939735102</v>
-      </c>
-      <c r="P26">
-        <v>0.000903251783799495</v>
-      </c>
-      <c r="Q26">
-        <v>0.02058292668566667</v>
-      </c>
-      <c r="R26">
-        <v>0.185246340171</v>
-      </c>
-      <c r="S26">
-        <v>4.75745997176483E-07</v>
-      </c>
-      <c r="T26">
-        <v>4.833808047336572E-07</v>
+        <v>5.193083077851614E-07</v>
       </c>
     </row>
   </sheetData>
